--- a/examples/UK OGD/national registry public data/counters_summary.xlsx
+++ b/examples/UK OGD/national registry public data/counters_summary.xlsx
@@ -345,7 +345,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>

--- a/examples/UK OGD/national registry public data/counters_summary.xlsx
+++ b/examples/UK OGD/national registry public data/counters_summary.xlsx
@@ -360,77 +360,102 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>COMPLETENESSMANDATORY</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>COMPLETENESSMANDATORY SCORE</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>COMPLETENESSOPTIONAL</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>COMPLETENESSOPTIONAL SCORE</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>PRECISION</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>PRECISION SCORE</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>BUSINESSRULECOMPLIANCE</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>BUSINESSRULECOMPLIANCE SCORE</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>METADATACOMPLIANCE</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>METADATACOMPLIANCE SCORE</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
           <t>UNIQUENESS</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>UNIQUENESSCOMPOSITE</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>UNIQUENESS SCORE</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>NONREDUNDANCY</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>NONREDUNDANCY SCORE</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>SEMANTICCONSISTENCY</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>SEMANTICCONSISTENCY SCORE</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>VALUECONSISTENCY</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>VALUECONSISTENCY SCORE</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
         <is>
           <t>FORMATCONSISTENCY</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>FORMATCONSISTENCYPREFIX</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>VALUECONSISTENCY</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>METACOMPLIANCESIZE</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>METACOMPLIANCETYPE</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>METACOMPLIANCERANGEMIN</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>METACOMPLIANCERANGEMAX</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>METACOMPLIANCEENUM</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>RULECOMPLIANCE</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>MANDATORYCOMPLETENESS</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>OPTIONALCOMPLETENESS</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>AVAILABILITY</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>CONFORMANCE</t>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>FORMATCONSISTENCY SCORE</t>
         </is>
       </c>
     </row>
@@ -456,19 +481,19 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
         <v>174647</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>0.984088</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -483,6 +508,21 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -508,19 +548,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
         <v>177471</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -535,6 +575,21 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -589,6 +644,21 @@
       <c r="P4" t="n">
         <v>0</v>
       </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -612,19 +682,19 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
         <v>174998</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>0.986065</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -639,6 +709,21 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -649,10 +734,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.000254</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -664,25 +749,25 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
         <v>36</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>0.000203</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -691,6 +776,21 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -701,10 +801,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1.7e-05</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -716,25 +816,25 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
         <v>27525</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>0.155096</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -743,6 +843,21 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -768,19 +883,19 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
         <v>13</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>7.3e-05</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -795,6 +910,21 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -820,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
         <v>177434</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>0.999792</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -847,6 +977,21 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -872,19 +1017,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
         <v>3</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>1.7e-05</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -899,6 +1044,21 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -909,10 +1069,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>48462</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>0.27307</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -924,25 +1084,25 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
         <v>128991</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>0.7268289999999999</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>48462</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -951,6 +1111,21 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -961,10 +1136,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>5330</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>0.030033</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -976,25 +1151,25 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
         <v>94656</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>0.5333599999999999</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>5330</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -1003,6 +1178,21 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1013,10 +1203,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>5335</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>0.030061</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1028,25 +1218,25 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
         <v>2624</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>0.014786</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>5335</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -1055,6 +1245,21 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
         <v>0</v>
       </c>
     </row>

--- a/examples/UK OGD/national registry public data/counters_summary.xlsx
+++ b/examples/UK OGD/national registry public data/counters_summary.xlsx
@@ -490,10 +490,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>174647</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.984088</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -557,10 +557,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>177471</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -691,10 +691,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>174998</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.986065</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -734,10 +734,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.000254</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -758,10 +758,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.000203</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>1.7e-05</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -825,10 +825,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>27525</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.155096</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -892,10 +892,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>7.3e-05</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>177434</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.999792</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1026,10 +1026,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>1.7e-05</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1069,10 +1069,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>48462</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.27307</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1093,10 +1093,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>128991</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0.7268289999999999</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1136,10 +1136,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5330</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.030033</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1160,10 +1160,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94656</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0.5333599999999999</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5335</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.030061</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>2624</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0.014786</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1260,6 +1260,69 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
         <v>0</v>
       </c>
     </row>
